--- a/Code/Results/Cases/Case_5_224/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_224/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.21352733982606</v>
+        <v>11.73582396971049</v>
       </c>
       <c r="C2">
-        <v>7.0055407711549</v>
+        <v>8.198143628860791</v>
       </c>
       <c r="D2">
-        <v>5.277740887553811</v>
+        <v>5.742490069362098</v>
       </c>
       <c r="E2">
-        <v>7.783269541843049</v>
+        <v>11.71729909709096</v>
       </c>
       <c r="F2">
-        <v>19.59001478628083</v>
+        <v>27.40552900906796</v>
       </c>
       <c r="I2">
-        <v>15.77243282076047</v>
+        <v>24.69008135183571</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.81008611547041</v>
+        <v>9.102014730398244</v>
       </c>
       <c r="L2">
-        <v>6.891078289556066</v>
+        <v>9.757681587473193</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>16.14667353997497</v>
+        <v>24.62061181298066</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,31 +462,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.27372096926168</v>
+        <v>11.44897535467203</v>
       </c>
       <c r="C3">
-        <v>6.912073599378847</v>
+        <v>8.169600342180633</v>
       </c>
       <c r="D3">
-        <v>5.137480936371451</v>
+        <v>5.693058072245429</v>
       </c>
       <c r="E3">
-        <v>7.673960657635348</v>
+        <v>11.73032061351807</v>
       </c>
       <c r="F3">
-        <v>19.36597907561918</v>
+        <v>27.46051221529218</v>
       </c>
       <c r="I3">
-        <v>15.92856877725982</v>
+        <v>24.78850513011865</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.15936318920009</v>
+        <v>8.895974339975837</v>
       </c>
       <c r="L3">
-        <v>6.682074714475752</v>
+        <v>9.742494873551044</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>16.18935326052124</v>
+        <v>24.70489543553953</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,31 +503,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.66257694816837</v>
+        <v>11.27087887610324</v>
       </c>
       <c r="C4">
-        <v>6.854229674549147</v>
+        <v>8.15195975560099</v>
       </c>
       <c r="D4">
-        <v>5.048920754490867</v>
+        <v>5.662036351539615</v>
       </c>
       <c r="E4">
-        <v>7.610885405604565</v>
+        <v>11.74045278583219</v>
       </c>
       <c r="F4">
-        <v>19.24535842826292</v>
+        <v>27.50119698236893</v>
       </c>
       <c r="I4">
-        <v>16.03620169952497</v>
+        <v>24.85356120080091</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.73962044237597</v>
+        <v>8.768145275271308</v>
       </c>
       <c r="L4">
-        <v>6.55390750770165</v>
+        <v>9.734843055466042</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>16.22924500329122</v>
+        <v>24.76173537559975</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,31 +544,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.40491774413073</v>
+        <v>11.19791374239899</v>
       </c>
       <c r="C5">
-        <v>6.830555245586241</v>
+        <v>8.144744233902701</v>
       </c>
       <c r="D5">
-        <v>5.01224755695085</v>
+        <v>5.64923129031952</v>
       </c>
       <c r="E5">
-        <v>7.586206068771906</v>
+        <v>11.74511918157899</v>
       </c>
       <c r="F5">
-        <v>19.20039271470289</v>
+        <v>27.51951383276393</v>
       </c>
       <c r="I5">
-        <v>16.08290484344922</v>
+        <v>24.88123389307195</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.56355951636051</v>
+        <v>8.715794003208661</v>
       </c>
       <c r="L5">
-        <v>6.501792081648847</v>
+        <v>9.732148133322758</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>16.24880729257698</v>
+        <v>24.78617573377882</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,31 +585,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.36161235494764</v>
+        <v>11.18577761330029</v>
       </c>
       <c r="C6">
-        <v>6.826618282018153</v>
+        <v>8.1435445405838</v>
       </c>
       <c r="D6">
-        <v>5.006123620627455</v>
+        <v>5.647095297006338</v>
       </c>
       <c r="E6">
-        <v>7.582170137310013</v>
+        <v>11.7459264943064</v>
       </c>
       <c r="F6">
-        <v>19.19317681331119</v>
+        <v>27.52266014856468</v>
       </c>
       <c r="I6">
-        <v>16.09082822035912</v>
+        <v>24.8858990704265</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.53402430259501</v>
+        <v>8.707087573488245</v>
       </c>
       <c r="L6">
-        <v>6.49314743230345</v>
+        <v>9.73172627735755</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>16.25225134030447</v>
+        <v>24.790311137311</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,31 +626,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.65913698901129</v>
+        <v>11.26989627568582</v>
       </c>
       <c r="C7">
-        <v>6.853910792341364</v>
+        <v>8.151862550527115</v>
       </c>
       <c r="D7">
-        <v>5.048428491814534</v>
+        <v>5.661864313086894</v>
       </c>
       <c r="E7">
-        <v>7.610548415064161</v>
+        <v>11.74051354230508</v>
       </c>
       <c r="F7">
-        <v>19.24473515067379</v>
+        <v>27.50143698031799</v>
       </c>
       <c r="I7">
-        <v>16.03682019719287</v>
+        <v>24.85392970130947</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.73726621699147</v>
+        <v>8.767440202934933</v>
       </c>
       <c r="L7">
-        <v>6.55320410096857</v>
+        <v>9.734804993839127</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>16.22949561894705</v>
+        <v>24.76205981669801</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,31 +667,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.89653518992514</v>
+        <v>11.63738960603847</v>
       </c>
       <c r="C8">
-        <v>6.973414589361118</v>
+        <v>8.188326981283295</v>
       </c>
       <c r="D8">
-        <v>5.229902537885469</v>
+        <v>5.725588060955352</v>
       </c>
       <c r="E8">
-        <v>7.744746904199021</v>
+        <v>11.72134550686427</v>
       </c>
       <c r="F8">
-        <v>19.50921304752964</v>
+        <v>27.42304781744336</v>
       </c>
       <c r="I8">
-        <v>15.82375465713804</v>
+        <v>24.7230577915754</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.58994269389408</v>
+        <v>9.031288079031155</v>
       </c>
       <c r="L8">
-        <v>6.819022850905783</v>
+        <v>9.752099641275667</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>16.15846712513404</v>
+        <v>24.64861520939244</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,31 +708,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.05440118221132</v>
+        <v>12.33801069803126</v>
       </c>
       <c r="C9">
-        <v>7.203665148423164</v>
+        <v>8.258832972700109</v>
       </c>
       <c r="D9">
-        <v>5.565249361374121</v>
+        <v>5.845013524147199</v>
       </c>
       <c r="E9">
-        <v>8.039496085276713</v>
+        <v>11.70070291672773</v>
       </c>
       <c r="F9">
-        <v>20.16477415601034</v>
+        <v>27.32442202873888</v>
       </c>
       <c r="I9">
-        <v>15.50483470575373</v>
+        <v>24.50313892265602</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>13.09976152935639</v>
+        <v>9.535221206957978</v>
       </c>
       <c r="L9">
-        <v>7.338595917466198</v>
+        <v>9.799162481231694</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>16.13387214487474</v>
+        <v>24.46662766829249</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,31 +749,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.47880433796662</v>
+        <v>12.83505702715018</v>
       </c>
       <c r="C10">
-        <v>7.369729938118572</v>
+        <v>8.309906016622556</v>
       </c>
       <c r="D10">
-        <v>5.797738416118594</v>
+        <v>5.929095737029099</v>
       </c>
       <c r="E10">
-        <v>8.27454801148156</v>
+        <v>11.69584752845379</v>
       </c>
       <c r="F10">
-        <v>20.73248588615211</v>
+        <v>27.28572048647957</v>
       </c>
       <c r="I10">
-        <v>15.33894927085932</v>
+        <v>24.36399854537263</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.10841107647976</v>
+        <v>9.893472513480644</v>
       </c>
       <c r="L10">
-        <v>7.715684903574736</v>
+        <v>9.841570157991839</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.19407872120686</v>
+        <v>24.35772293067243</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,31 +790,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.09249601110378</v>
+        <v>13.0562948324768</v>
       </c>
       <c r="C11">
-        <v>7.444491011311808</v>
+        <v>8.332957245999264</v>
       </c>
       <c r="D11">
-        <v>5.900244866453817</v>
+        <v>5.966493746375496</v>
       </c>
       <c r="E11">
-        <v>8.385310551442405</v>
+        <v>11.69587015974644</v>
       </c>
       <c r="F11">
-        <v>21.00977515753175</v>
+        <v>27.27546862142072</v>
       </c>
       <c r="I11">
-        <v>15.28024725614569</v>
+        <v>24.30558206826069</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.54530584841006</v>
+        <v>10.05312446611081</v>
       </c>
       <c r="L11">
-        <v>7.885581669240284</v>
+        <v>9.862517659500204</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.24024593090901</v>
+        <v>24.31359021063855</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,31 +831,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.32001093056214</v>
+        <v>13.13929349360031</v>
       </c>
       <c r="C12">
-        <v>7.472680040163851</v>
+        <v>8.341657745441267</v>
       </c>
       <c r="D12">
-        <v>5.938576208490087</v>
+        <v>5.980528123935162</v>
       </c>
       <c r="E12">
-        <v>8.427788517518351</v>
+        <v>11.69619866660733</v>
       </c>
       <c r="F12">
-        <v>21.11752837389836</v>
+        <v>27.27264478405326</v>
       </c>
       <c r="I12">
-        <v>15.26059640418371</v>
+        <v>24.28416390671112</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.7075920623536</v>
+        <v>10.11304854139369</v>
       </c>
       <c r="L12">
-        <v>7.949635712496553</v>
+        <v>9.870683780162366</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>16.26057286370498</v>
+        <v>24.29765803813193</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,31 +872,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.27122756550419</v>
+        <v>13.12145409337995</v>
       </c>
       <c r="C13">
-        <v>7.466614556469478</v>
+        <v>8.339785241601049</v>
       </c>
       <c r="D13">
-        <v>5.93034272459396</v>
+        <v>5.977511315825139</v>
       </c>
       <c r="E13">
-        <v>8.418616619438172</v>
+        <v>11.69611370416224</v>
       </c>
       <c r="F13">
-        <v>21.09419935608746</v>
+        <v>27.2732058722737</v>
       </c>
       <c r="I13">
-        <v>15.26471113179178</v>
+        <v>24.28874540940989</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.67278113102419</v>
+        <v>10.1001673489313</v>
       </c>
       <c r="L13">
-        <v>7.935853739764655</v>
+        <v>9.86891473615265</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.25606631800372</v>
+        <v>24.30105459524027</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,31 +913,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.11131123247699</v>
+        <v>13.06313922928507</v>
       </c>
       <c r="C14">
-        <v>7.446812619174831</v>
+        <v>8.333673625762202</v>
       </c>
       <c r="D14">
-        <v>5.903408235149164</v>
+        <v>5.967650945332069</v>
       </c>
       <c r="E14">
-        <v>8.388794621834954</v>
+        <v>11.69589078013829</v>
       </c>
       <c r="F14">
-        <v>21.01858491896377</v>
+        <v>27.27521508973587</v>
       </c>
       <c r="I14">
-        <v>15.27857790336286</v>
+        <v>24.30380588892429</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.55872046734575</v>
+        <v>10.05806543410756</v>
       </c>
       <c r="L14">
-        <v>7.890857328972724</v>
+        <v>9.863184832366704</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>16.24186041604127</v>
+        <v>24.31226381810283</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,31 +954,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.0127243418317</v>
+        <v>13.02731597378005</v>
       </c>
       <c r="C15">
-        <v>7.43466730971138</v>
+        <v>8.329926304354846</v>
       </c>
       <c r="D15">
-        <v>5.886846352641544</v>
+        <v>5.961594441137859</v>
       </c>
       <c r="E15">
-        <v>8.370596905744849</v>
+        <v>11.69579586738433</v>
       </c>
       <c r="F15">
-        <v>20.97262726582482</v>
+        <v>27.27658363228073</v>
       </c>
       <c r="I15">
-        <v>15.28741260432883</v>
+        <v>24.31312244250928</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.48844407931392</v>
+        <v>10.03220585237898</v>
       </c>
       <c r="L15">
-        <v>7.86325772903577</v>
+        <v>9.85970540830551</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>16.23353355697266</v>
+        <v>24.31923142382128</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,31 +995,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.43801281903566</v>
+        <v>12.82049371165012</v>
       </c>
       <c r="C16">
-        <v>7.364827601504621</v>
+        <v>8.308395702083878</v>
       </c>
       <c r="D16">
-        <v>5.790972334835494</v>
+        <v>5.926634126053562</v>
       </c>
       <c r="E16">
-        <v>8.267385152346989</v>
+        <v>11.69589087462449</v>
       </c>
       <c r="F16">
-        <v>20.7147486323627</v>
+        <v>27.28653853487032</v>
       </c>
       <c r="I16">
-        <v>15.3431370423179</v>
+        <v>24.36791448939996</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.07941714650308</v>
+        <v>9.882967272160116</v>
       </c>
       <c r="L16">
-        <v>7.704544616138638</v>
+        <v>9.840234144951786</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>16.19145182229576</v>
+        <v>24.36071613118327</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,31 +1036,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.07670328266895</v>
+        <v>12.69230921763506</v>
       </c>
       <c r="C17">
-        <v>7.321776174559891</v>
+        <v>8.295139081521965</v>
       </c>
       <c r="D17">
-        <v>5.73130998875689</v>
+        <v>5.904965440039645</v>
       </c>
       <c r="E17">
-        <v>8.205038470589399</v>
+        <v>11.69652005782227</v>
       </c>
       <c r="F17">
-        <v>20.56143476475583</v>
+        <v>27.29452983418522</v>
       </c>
       <c r="I17">
-        <v>15.3817320264661</v>
+        <v>24.40277821004348</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.82286869494322</v>
+        <v>9.790523539726527</v>
       </c>
       <c r="L17">
-        <v>7.606723731866935</v>
+        <v>9.828710275913631</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>16.17054885616507</v>
+        <v>24.38755250920038</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,31 +1077,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.86565807752671</v>
+        <v>12.61812670288055</v>
       </c>
       <c r="C18">
-        <v>7.296940938511634</v>
+        <v>8.28749721729886</v>
       </c>
       <c r="D18">
-        <v>5.69668841694789</v>
+        <v>5.892422338246242</v>
       </c>
       <c r="E18">
-        <v>8.169540424734659</v>
+        <v>11.69709204121114</v>
       </c>
       <c r="F18">
-        <v>20.47504402781827</v>
+        <v>27.29981837048076</v>
       </c>
       <c r="I18">
-        <v>15.40549781298427</v>
+        <v>24.4232900745291</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.6732427447523</v>
+        <v>9.737043064677101</v>
       </c>
       <c r="L18">
-        <v>7.550307444382325</v>
+        <v>9.822238204709723</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.16028507613501</v>
+        <v>24.40349704181806</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,31 +1118,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.79364557255187</v>
+        <v>12.5929342791677</v>
       </c>
       <c r="C19">
-        <v>7.288519867533306</v>
+        <v>8.284906962644287</v>
       </c>
       <c r="D19">
-        <v>5.684914276878225</v>
+        <v>5.888161900185502</v>
       </c>
       <c r="E19">
-        <v>8.157584112034327</v>
+        <v>11.69732181435818</v>
       </c>
       <c r="F19">
-        <v>20.44610077836228</v>
+        <v>27.30172781794409</v>
       </c>
       <c r="I19">
-        <v>15.4138086328333</v>
+        <v>24.43031386457893</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.62222727188969</v>
+        <v>9.718884132868849</v>
       </c>
       <c r="L19">
-        <v>7.531181206857411</v>
+        <v>9.82007382114389</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>16.15710763547588</v>
+        <v>24.40898293250893</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,31 +1159,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.11549917157874</v>
+        <v>12.70600227370196</v>
       </c>
       <c r="C20">
-        <v>7.326366714701132</v>
+        <v>8.296552048233838</v>
       </c>
       <c r="D20">
-        <v>5.737692887225498</v>
+        <v>5.907280409116843</v>
       </c>
       <c r="E20">
-        <v>8.211638027784598</v>
+        <v>11.69643134248035</v>
       </c>
       <c r="F20">
-        <v>20.5775697780727</v>
+        <v>27.29360750303324</v>
       </c>
       <c r="I20">
-        <v>15.37746015539961</v>
+        <v>24.39901937545085</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.85039257554201</v>
+        <v>9.800396757698698</v>
       </c>
       <c r="L20">
-        <v>7.617153048091696</v>
+        <v>9.829920881023337</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.17259090768114</v>
+        <v>24.38464303959164</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,31 +1200,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.15841446460729</v>
+        <v>13.08028946478013</v>
       </c>
       <c r="C21">
-        <v>7.452632287576217</v>
+        <v>8.335469547405024</v>
       </c>
       <c r="D21">
-        <v>5.91133285733985</v>
+        <v>5.970550673059632</v>
       </c>
       <c r="E21">
-        <v>8.397539691131845</v>
+        <v>11.6959475836091</v>
       </c>
       <c r="F21">
-        <v>21.04072001318441</v>
+        <v>27.27459620778699</v>
       </c>
       <c r="I21">
-        <v>15.27443354126746</v>
+        <v>24.29936317458354</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.59230847873869</v>
+        <v>10.07044666477054</v>
       </c>
       <c r="L21">
-        <v>7.904081857318886</v>
+        <v>9.86486153614454</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>16.24595469973557</v>
+        <v>24.30895021364379</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,31 +1241,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.81161993284535</v>
+        <v>13.32033338800913</v>
       </c>
       <c r="C22">
-        <v>7.534443326996159</v>
+        <v>8.360737183977793</v>
       </c>
       <c r="D22">
-        <v>6.021979367874473</v>
+        <v>6.011156412622016</v>
       </c>
       <c r="E22">
-        <v>8.522145624926358</v>
+        <v>11.69749570257581</v>
       </c>
       <c r="F22">
-        <v>21.35944534041416</v>
+        <v>27.26833984885126</v>
       </c>
       <c r="I22">
-        <v>15.22221177843055</v>
+        <v>24.23832966848157</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>15.0588007292856</v>
+        <v>10.24381234995752</v>
       </c>
       <c r="L22">
-        <v>8.089945009536924</v>
+        <v>9.889057568427631</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>16.31054683569477</v>
+        <v>24.26402754985232</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,31 +1282,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.46557269074349</v>
+        <v>13.19266038037031</v>
       </c>
       <c r="C23">
-        <v>7.490846936379754</v>
+        <v>8.347267433235508</v>
       </c>
       <c r="D23">
-        <v>5.963190124976832</v>
+        <v>5.989554158180232</v>
       </c>
       <c r="E23">
-        <v>8.455362202020341</v>
+        <v>11.69649921249005</v>
       </c>
       <c r="F23">
-        <v>21.18786619876544</v>
+        <v>27.27111444672276</v>
       </c>
       <c r="I23">
-        <v>15.24864313391616</v>
+        <v>24.27052904732971</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.81150623137313</v>
+        <v>10.15158725248625</v>
       </c>
       <c r="L23">
-        <v>7.990911848886505</v>
+        <v>9.876020738770436</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>16.27450278637817</v>
+        <v>24.28758687792556</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,31 +1323,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.09796990620602</v>
+        <v>12.69981315557995</v>
       </c>
       <c r="C24">
-        <v>7.324291593699933</v>
+        <v>8.295913309532267</v>
       </c>
       <c r="D24">
-        <v>5.734808176973659</v>
+        <v>5.906234077481113</v>
       </c>
       <c r="E24">
-        <v>8.20865328929905</v>
+        <v>11.69647079569442</v>
       </c>
       <c r="F24">
-        <v>20.57026968419689</v>
+        <v>27.29402232653114</v>
       </c>
       <c r="I24">
-        <v>15.3793865689014</v>
+        <v>24.40071728609058</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.83795567226665</v>
+        <v>9.79593410987982</v>
       </c>
       <c r="L24">
-        <v>7.612438504342321</v>
+        <v>9.829373089069026</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.17166224501367</v>
+        <v>24.38595680382798</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,31 +1364,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.49912304306151</v>
+        <v>12.15120890833902</v>
       </c>
       <c r="C25">
-        <v>7.141879565417303</v>
+        <v>8.239878446319697</v>
       </c>
       <c r="D25">
-        <v>5.476878056197038</v>
+        <v>5.813328195577565</v>
       </c>
       <c r="E25">
-        <v>7.956448997139265</v>
+        <v>11.70447453801877</v>
       </c>
       <c r="F25">
-        <v>19.97245548509065</v>
+        <v>27.34518447720552</v>
       </c>
       <c r="I25">
-        <v>15.57971242361605</v>
+        <v>24.55869670598284</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.70891016694369</v>
+        <v>9.400740579616683</v>
       </c>
       <c r="L25">
-        <v>7.198613546143147</v>
+        <v>9.785041076537901</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>16.12738398940079</v>
+        <v>24.51151349514871</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_224/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_224/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.73582396971049</v>
+        <v>14.2135273398261</v>
       </c>
       <c r="C2">
-        <v>8.198143628860791</v>
+        <v>7.005540771155023</v>
       </c>
       <c r="D2">
-        <v>5.742490069362098</v>
+        <v>5.277740887553755</v>
       </c>
       <c r="E2">
-        <v>11.71729909709096</v>
+        <v>7.783269541843057</v>
       </c>
       <c r="F2">
-        <v>27.40552900906796</v>
+        <v>19.59001478628061</v>
       </c>
       <c r="I2">
-        <v>24.69008135183571</v>
+        <v>15.77243282076035</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.102014730398244</v>
+        <v>11.81008611547047</v>
       </c>
       <c r="L2">
-        <v>9.757681587473193</v>
+        <v>6.891078289556039</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>24.62061181298066</v>
+        <v>16.14667353997479</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,31 +462,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.44897535467203</v>
+        <v>13.27372096926171</v>
       </c>
       <c r="C3">
-        <v>8.169600342180633</v>
+        <v>6.912073599378846</v>
       </c>
       <c r="D3">
-        <v>5.693058072245429</v>
+        <v>5.137480936371549</v>
       </c>
       <c r="E3">
-        <v>11.73032061351807</v>
+        <v>7.673960657635448</v>
       </c>
       <c r="F3">
-        <v>27.46051221529218</v>
+        <v>19.36597907561894</v>
       </c>
       <c r="I3">
-        <v>24.78850513011865</v>
+        <v>15.92856877725964</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.895974339975837</v>
+        <v>11.15936318920011</v>
       </c>
       <c r="L3">
-        <v>9.742494873551044</v>
+        <v>6.682074714475775</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>24.70489543553953</v>
+        <v>16.18935326052108</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,31 +503,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.27087887610324</v>
+        <v>12.66257694816837</v>
       </c>
       <c r="C4">
-        <v>8.15195975560099</v>
+        <v>6.854229674549529</v>
       </c>
       <c r="D4">
-        <v>5.662036351539615</v>
+        <v>5.048920754490747</v>
       </c>
       <c r="E4">
-        <v>11.74045278583219</v>
+        <v>7.610885405604563</v>
       </c>
       <c r="F4">
-        <v>27.50119698236893</v>
+        <v>19.24535842826273</v>
       </c>
       <c r="I4">
-        <v>24.85356120080091</v>
+        <v>16.03620169952486</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.768145275271308</v>
+        <v>10.73962044237603</v>
       </c>
       <c r="L4">
-        <v>9.734843055466042</v>
+        <v>6.553907507701617</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>24.76173537559975</v>
+        <v>16.22924500329101</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,31 +544,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.19791374239899</v>
+        <v>12.40491774413073</v>
       </c>
       <c r="C5">
-        <v>8.144744233902701</v>
+        <v>6.830555245586211</v>
       </c>
       <c r="D5">
-        <v>5.64923129031952</v>
+        <v>5.012247556951086</v>
       </c>
       <c r="E5">
-        <v>11.74511918157899</v>
+        <v>7.586206068771872</v>
       </c>
       <c r="F5">
-        <v>27.51951383276393</v>
+        <v>19.20039271470274</v>
       </c>
       <c r="I5">
-        <v>24.88123389307195</v>
+        <v>16.08290484344917</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.715794003208661</v>
+        <v>10.56355951636044</v>
       </c>
       <c r="L5">
-        <v>9.732148133322758</v>
+        <v>6.501792081648815</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>24.78617573377882</v>
+        <v>16.24880729257695</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,31 +585,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.18577761330029</v>
+        <v>12.3616123549477</v>
       </c>
       <c r="C6">
-        <v>8.1435445405838</v>
+        <v>6.826618282018022</v>
       </c>
       <c r="D6">
-        <v>5.647095297006338</v>
+        <v>5.00612362062738</v>
       </c>
       <c r="E6">
-        <v>11.7459264943064</v>
+        <v>7.582170137310013</v>
       </c>
       <c r="F6">
-        <v>27.52266014856468</v>
+        <v>19.19317681331119</v>
       </c>
       <c r="I6">
-        <v>24.8858990704265</v>
+        <v>16.09082822035904</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.707087573488245</v>
+        <v>10.53402430259501</v>
       </c>
       <c r="L6">
-        <v>9.73172627735755</v>
+        <v>6.493147432303459</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>24.790311137311</v>
+        <v>16.25225134030445</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,31 +626,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.26989627568582</v>
+        <v>12.65913698901135</v>
       </c>
       <c r="C7">
-        <v>8.151862550527115</v>
+        <v>6.853910792341369</v>
       </c>
       <c r="D7">
-        <v>5.661864313086894</v>
+        <v>5.048428491814576</v>
       </c>
       <c r="E7">
-        <v>11.74051354230508</v>
+        <v>7.610548415064258</v>
       </c>
       <c r="F7">
-        <v>27.50143698031799</v>
+        <v>19.24473515067377</v>
       </c>
       <c r="I7">
-        <v>24.85392970130947</v>
+        <v>16.03682019719282</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.767440202934933</v>
+        <v>10.7372662169915</v>
       </c>
       <c r="L7">
-        <v>9.734804993839127</v>
+        <v>6.553204100968607</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>24.76205981669801</v>
+        <v>16.22949561894704</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,31 +667,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.63738960603847</v>
+        <v>13.89653518992519</v>
       </c>
       <c r="C8">
-        <v>8.188326981283295</v>
+        <v>6.973414589361098</v>
       </c>
       <c r="D8">
-        <v>5.725588060955352</v>
+        <v>5.229902537885443</v>
       </c>
       <c r="E8">
-        <v>11.72134550686427</v>
+        <v>7.744746904199163</v>
       </c>
       <c r="F8">
-        <v>27.42304781744336</v>
+        <v>19.50921304752954</v>
       </c>
       <c r="I8">
-        <v>24.7230577915754</v>
+        <v>15.82375465713796</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.031288079031155</v>
+        <v>11.58994269389411</v>
       </c>
       <c r="L8">
-        <v>9.752099641275667</v>
+        <v>6.819022850905883</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>24.64861520939244</v>
+        <v>16.15846712513393</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,31 +708,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.33801069803126</v>
+        <v>16.05440118221133</v>
       </c>
       <c r="C9">
-        <v>8.258832972700109</v>
+        <v>7.203665148423497</v>
       </c>
       <c r="D9">
-        <v>5.845013524147199</v>
+        <v>5.565249361374105</v>
       </c>
       <c r="E9">
-        <v>11.70070291672773</v>
+        <v>8.039496085276765</v>
       </c>
       <c r="F9">
-        <v>27.32442202873888</v>
+        <v>20.16477415601029</v>
       </c>
       <c r="I9">
-        <v>24.50313892265602</v>
+        <v>15.50483470575369</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.535221206957978</v>
+        <v>13.09976152935644</v>
       </c>
       <c r="L9">
-        <v>9.799162481231694</v>
+        <v>7.338595917466161</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>24.46662766829249</v>
+        <v>16.13387214487467</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,31 +749,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.83505702715018</v>
+        <v>17.47880433796666</v>
       </c>
       <c r="C10">
-        <v>8.309906016622556</v>
+        <v>7.369729938118412</v>
       </c>
       <c r="D10">
-        <v>5.929095737029099</v>
+        <v>5.797738416118753</v>
       </c>
       <c r="E10">
-        <v>11.69584752845379</v>
+        <v>8.274548011481548</v>
       </c>
       <c r="F10">
-        <v>27.28572048647957</v>
+        <v>20.73248588615214</v>
       </c>
       <c r="I10">
-        <v>24.36399854537263</v>
+        <v>15.33894927085936</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.893472513480644</v>
+        <v>14.10841107647973</v>
       </c>
       <c r="L10">
-        <v>9.841570157991839</v>
+        <v>7.715684903574764</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>24.35772293067243</v>
+        <v>16.19407872120694</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,31 +790,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.0562948324768</v>
+        <v>18.09249601110375</v>
       </c>
       <c r="C11">
-        <v>8.332957245999264</v>
+        <v>7.444491011312017</v>
       </c>
       <c r="D11">
-        <v>5.966493746375496</v>
+        <v>5.900244866453903</v>
       </c>
       <c r="E11">
-        <v>11.69587015974644</v>
+        <v>8.385310551442478</v>
       </c>
       <c r="F11">
-        <v>27.27546862142072</v>
+        <v>21.00977515753167</v>
       </c>
       <c r="I11">
-        <v>24.30558206826069</v>
+        <v>15.28024725614567</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>10.05312446611081</v>
+        <v>14.54530584841008</v>
       </c>
       <c r="L11">
-        <v>9.862517659500204</v>
+        <v>7.885581669240294</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>24.31359021063855</v>
+        <v>16.24024593090894</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,31 +831,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.13929349360031</v>
+        <v>18.32001093056224</v>
       </c>
       <c r="C12">
-        <v>8.341657745441267</v>
+        <v>7.472680040163702</v>
       </c>
       <c r="D12">
-        <v>5.980528123935162</v>
+        <v>5.938576208489925</v>
       </c>
       <c r="E12">
-        <v>11.69619866660733</v>
+        <v>8.427788517518382</v>
       </c>
       <c r="F12">
-        <v>27.27264478405326</v>
+        <v>21.11752837389837</v>
       </c>
       <c r="I12">
-        <v>24.28416390671112</v>
+        <v>15.26059640418359</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>10.11304854139369</v>
+        <v>14.70759206235365</v>
       </c>
       <c r="L12">
-        <v>9.870683780162366</v>
+        <v>7.949635712496568</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>24.29765803813193</v>
+        <v>16.2605728637049</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,31 +872,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.12145409337995</v>
+        <v>18.27122756550422</v>
       </c>
       <c r="C13">
-        <v>8.339785241601049</v>
+        <v>7.466614556469488</v>
       </c>
       <c r="D13">
-        <v>5.977511315825139</v>
+        <v>5.930342724594075</v>
       </c>
       <c r="E13">
-        <v>11.69611370416224</v>
+        <v>8.418616619438207</v>
       </c>
       <c r="F13">
-        <v>27.2732058722737</v>
+        <v>21.09419935608742</v>
       </c>
       <c r="I13">
-        <v>24.28874540940989</v>
+        <v>15.26471113179177</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>10.1001673489313</v>
+        <v>14.67278113102421</v>
       </c>
       <c r="L13">
-        <v>9.86891473615265</v>
+        <v>7.935853739764664</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>24.30105459524027</v>
+        <v>16.25606631800371</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,31 +913,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.06313922928507</v>
+        <v>18.11131123247705</v>
       </c>
       <c r="C14">
-        <v>8.333673625762202</v>
+        <v>7.446812619174567</v>
       </c>
       <c r="D14">
-        <v>5.967650945332069</v>
+        <v>5.903408235149256</v>
       </c>
       <c r="E14">
-        <v>11.69589078013829</v>
+        <v>8.388794621835004</v>
       </c>
       <c r="F14">
-        <v>27.27521508973587</v>
+        <v>21.01858491896366</v>
       </c>
       <c r="I14">
-        <v>24.30380588892429</v>
+        <v>15.27857790336269</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>10.05806543410756</v>
+        <v>14.55872046734575</v>
       </c>
       <c r="L14">
-        <v>9.863184832366704</v>
+        <v>7.890857328972769</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>24.31226381810283</v>
+        <v>16.24186041604115</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,31 +954,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.02731597378005</v>
+        <v>18.01272434183167</v>
       </c>
       <c r="C15">
-        <v>8.329926304354846</v>
+        <v>7.434667309711483</v>
       </c>
       <c r="D15">
-        <v>5.961594441137859</v>
+        <v>5.886846352641648</v>
       </c>
       <c r="E15">
-        <v>11.69579586738433</v>
+        <v>8.370596905744774</v>
       </c>
       <c r="F15">
-        <v>27.27658363228073</v>
+        <v>20.9726272658249</v>
       </c>
       <c r="I15">
-        <v>24.31312244250928</v>
+        <v>15.28741260432896</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>10.03220585237898</v>
+        <v>14.48844407931386</v>
       </c>
       <c r="L15">
-        <v>9.85970540830551</v>
+        <v>7.863257729035703</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>24.31923142382128</v>
+        <v>16.23353355697277</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,31 +995,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.82049371165012</v>
+        <v>17.43801281903569</v>
       </c>
       <c r="C16">
-        <v>8.308395702083878</v>
+        <v>7.364827601504727</v>
       </c>
       <c r="D16">
-        <v>5.926634126053562</v>
+        <v>5.790972334835499</v>
       </c>
       <c r="E16">
-        <v>11.69589087462449</v>
+        <v>8.267385152346957</v>
       </c>
       <c r="F16">
-        <v>27.28653853487032</v>
+        <v>20.71474863236264</v>
       </c>
       <c r="I16">
-        <v>24.36791448939996</v>
+        <v>15.34313704231784</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.882967272160116</v>
+        <v>14.07941714650312</v>
       </c>
       <c r="L16">
-        <v>9.840234144951786</v>
+        <v>7.704544616138584</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>24.36071613118327</v>
+        <v>16.19145182229569</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,31 +1036,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.69230921763506</v>
+        <v>17.07670328266905</v>
       </c>
       <c r="C17">
-        <v>8.295139081521965</v>
+        <v>7.321776174559997</v>
       </c>
       <c r="D17">
-        <v>5.904965440039645</v>
+        <v>5.731309988757101</v>
       </c>
       <c r="E17">
-        <v>11.69652005782227</v>
+        <v>8.205038470589376</v>
       </c>
       <c r="F17">
-        <v>27.29452983418522</v>
+        <v>20.56143476475559</v>
       </c>
       <c r="I17">
-        <v>24.40277821004348</v>
+        <v>15.38173202646587</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.790523539726527</v>
+        <v>13.82286869494332</v>
       </c>
       <c r="L17">
-        <v>9.828710275913631</v>
+        <v>7.60672373186691</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>24.38755250920038</v>
+        <v>16.17054885616486</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,31 +1077,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.61812670288055</v>
+        <v>16.86565807752674</v>
       </c>
       <c r="C18">
-        <v>8.28749721729886</v>
+        <v>7.296940938511627</v>
       </c>
       <c r="D18">
-        <v>5.892422338246242</v>
+        <v>5.696688416947733</v>
       </c>
       <c r="E18">
-        <v>11.69709204121114</v>
+        <v>8.169540424734624</v>
       </c>
       <c r="F18">
-        <v>27.29981837048076</v>
+        <v>20.47504402781819</v>
       </c>
       <c r="I18">
-        <v>24.4232900745291</v>
+        <v>15.40549781298412</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.737043064677101</v>
+        <v>13.67324274475232</v>
       </c>
       <c r="L18">
-        <v>9.822238204709723</v>
+        <v>7.550307444382308</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>24.40349704181806</v>
+        <v>16.16028507613486</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,31 +1118,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.5929342791677</v>
+        <v>16.79364557255182</v>
       </c>
       <c r="C19">
-        <v>8.284906962644287</v>
+        <v>7.288519867533423</v>
       </c>
       <c r="D19">
-        <v>5.888161900185502</v>
+        <v>5.684914276878114</v>
       </c>
       <c r="E19">
-        <v>11.69732181435818</v>
+        <v>8.157584112034371</v>
       </c>
       <c r="F19">
-        <v>27.30172781794409</v>
+        <v>20.44610077836225</v>
       </c>
       <c r="I19">
-        <v>24.43031386457893</v>
+        <v>15.41380863283327</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.718884132868849</v>
+        <v>13.62222727188973</v>
       </c>
       <c r="L19">
-        <v>9.82007382114389</v>
+        <v>7.531181206857374</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>24.40898293250893</v>
+        <v>16.15710763547584</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,31 +1159,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.70600227370196</v>
+        <v>17.11549917157884</v>
       </c>
       <c r="C20">
-        <v>8.296552048233838</v>
+        <v>7.326366714700891</v>
       </c>
       <c r="D20">
-        <v>5.907280409116843</v>
+        <v>5.737692887225564</v>
       </c>
       <c r="E20">
-        <v>11.69643134248035</v>
+        <v>8.211638027784456</v>
       </c>
       <c r="F20">
-        <v>27.29360750303324</v>
+        <v>20.57756977807268</v>
       </c>
       <c r="I20">
-        <v>24.39901937545085</v>
+        <v>15.37746015539954</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.800396757698698</v>
+        <v>13.85039257554201</v>
       </c>
       <c r="L20">
-        <v>9.829920881023337</v>
+        <v>7.617153048091669</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>24.38464303959164</v>
+        <v>16.17259090768115</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,31 +1200,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.08028946478013</v>
+        <v>18.15841446460738</v>
       </c>
       <c r="C21">
-        <v>8.335469547405024</v>
+        <v>7.452632287576076</v>
       </c>
       <c r="D21">
-        <v>5.970550673059632</v>
+        <v>5.911332857339943</v>
       </c>
       <c r="E21">
-        <v>11.6959475836091</v>
+        <v>8.397539691132035</v>
       </c>
       <c r="F21">
-        <v>27.27459620778699</v>
+        <v>21.04072001318444</v>
       </c>
       <c r="I21">
-        <v>24.29936317458354</v>
+        <v>15.27443354126749</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>10.07044666477054</v>
+        <v>14.59230847873877</v>
       </c>
       <c r="L21">
-        <v>9.86486153614454</v>
+        <v>7.904081857318966</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>24.30895021364379</v>
+        <v>16.24595469973562</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,31 +1241,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.32033338800913</v>
+        <v>18.81161993284538</v>
       </c>
       <c r="C22">
-        <v>8.360737183977793</v>
+        <v>7.534443326996026</v>
       </c>
       <c r="D22">
-        <v>6.011156412622016</v>
+        <v>6.021979367874451</v>
       </c>
       <c r="E22">
-        <v>11.69749570257581</v>
+        <v>8.522145624926395</v>
       </c>
       <c r="F22">
-        <v>27.26833984885126</v>
+        <v>21.35944534041418</v>
       </c>
       <c r="I22">
-        <v>24.23832966848157</v>
+        <v>15.22221177843057</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>10.24381234995752</v>
+        <v>15.05880072928561</v>
       </c>
       <c r="L22">
-        <v>9.889057568427631</v>
+        <v>8.089945009536953</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>24.26402754985232</v>
+        <v>16.31054683569482</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,31 +1282,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.19266038037031</v>
+        <v>18.46557269074352</v>
       </c>
       <c r="C23">
-        <v>8.347267433235508</v>
+        <v>7.490846936379632</v>
       </c>
       <c r="D23">
-        <v>5.989554158180232</v>
+        <v>5.963190124976992</v>
       </c>
       <c r="E23">
-        <v>11.69649921249005</v>
+        <v>8.455362202020329</v>
       </c>
       <c r="F23">
-        <v>27.27111444672276</v>
+        <v>21.18786619876526</v>
       </c>
       <c r="I23">
-        <v>24.27052904732971</v>
+        <v>15.24864313391599</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10.15158725248625</v>
+        <v>14.81150623137312</v>
       </c>
       <c r="L23">
-        <v>9.876020738770436</v>
+        <v>7.990911848886523</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>24.28758687792556</v>
+        <v>16.27450278637802</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,31 +1323,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.69981315557995</v>
+        <v>17.09796990620609</v>
       </c>
       <c r="C24">
-        <v>8.295913309532267</v>
+        <v>7.32429159369982</v>
       </c>
       <c r="D24">
-        <v>5.906234077481113</v>
+        <v>5.734808176973775</v>
       </c>
       <c r="E24">
-        <v>11.69647079569442</v>
+        <v>8.208653289298974</v>
       </c>
       <c r="F24">
-        <v>27.29402232653114</v>
+        <v>20.57026968419666</v>
       </c>
       <c r="I24">
-        <v>24.40071728609058</v>
+        <v>15.37938656890118</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.79593410987982</v>
+        <v>13.8379556722667</v>
       </c>
       <c r="L24">
-        <v>9.829373089069026</v>
+        <v>7.61243850434228</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>24.38595680382798</v>
+        <v>16.17166224501348</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,31 +1364,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.15120890833902</v>
+        <v>15.49912304306146</v>
       </c>
       <c r="C25">
-        <v>8.239878446319697</v>
+        <v>7.141879565417414</v>
       </c>
       <c r="D25">
-        <v>5.813328195577565</v>
+        <v>5.476878056197209</v>
       </c>
       <c r="E25">
-        <v>11.70447453801877</v>
+        <v>7.956448997139372</v>
       </c>
       <c r="F25">
-        <v>27.34518447720552</v>
+        <v>19.97245548509068</v>
       </c>
       <c r="I25">
-        <v>24.55869670598284</v>
+        <v>15.57971242361621</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.400740579616683</v>
+        <v>12.70891016694368</v>
       </c>
       <c r="L25">
-        <v>9.785041076537901</v>
+        <v>7.198613546143184</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>24.51151349514871</v>
+        <v>16.12738398940091</v>
       </c>
     </row>
   </sheetData>
